--- a/data/trans_dic/P70D_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P70D_R-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 14,68</t>
+          <t>4,31; 14,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,81; 43,56</t>
+          <t>12,12; 43,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,13; 23,9</t>
+          <t>9,25; 25,03</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,07</t>
+          <t>2,76; 5,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,07; 6,85</t>
+          <t>4,13; 6,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,62; 5,45</t>
+          <t>3,64; 5,27</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,51</t>
+          <t>2,04; 6,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,18</t>
+          <t>3,3; 7,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 6,12</t>
+          <t>3,17; 6,05</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 5,26</t>
+          <t>3,22; 5,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,05; 7,9</t>
+          <t>5,04; 7,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,39; 6,07</t>
+          <t>4,24; 5,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70D_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P70D_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,31; 14,48</t>
+          <t>4,46; 14,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,12; 43,81</t>
+          <t>11,81; 43,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,25; 25,03</t>
+          <t>9,13; 23,9</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,06</t>
+          <t>2,73; 5,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,13; 6,99</t>
+          <t>4,07; 6,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,64; 5,27</t>
+          <t>3,62; 5,45</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,04; 6,42</t>
+          <t>2,08; 6,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,01</t>
+          <t>3,38; 7,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,05</t>
+          <t>3,23; 6,12</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,22; 5,23</t>
+          <t>3,15; 5,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 7,98</t>
+          <t>5,05; 7,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,24; 5,91</t>
+          <t>4,39; 6,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70D_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P70D_R-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>20,25%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>12,78%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 14,68</t>
+          <t>4,06; 13,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,81; 43,56</t>
+          <t>11,17; 37,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,13; 23,9</t>
+          <t>8,57; 21,18</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>3,85%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,07</t>
+          <t>1,66; 4,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,07; 6,85</t>
+          <t>3,45; 6,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,62; 5,45</t>
+          <t>2,6; 4,8</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,37%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,51</t>
+          <t>2,08; 6,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,18</t>
+          <t>3,34; 7,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 6,12</t>
+          <t>3,19; 6,16</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>4,53%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 5,26</t>
+          <t>2,35; 4,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,05; 7,9</t>
+          <t>4,52; 7,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,39; 6,07</t>
+          <t>3,55; 5,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70D_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P70D_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,7 +557,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -566,7 +567,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>13,15%</t>
         </is>
       </c>
     </row>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,06; 13,77</t>
+          <t>5,29; 14,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,17; 37,67</t>
+          <t>11,39; 36,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,57; 21,18</t>
+          <t>8,79; 21,73</t>
         </is>
       </c>
     </row>
@@ -606,17 +607,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>4,05%</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 4,41</t>
+          <t>1,79; 4,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 6,38</t>
+          <t>3,58; 6,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 4,8</t>
+          <t>2,76; 5,01</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,6</t>
+          <t>2,1; 6,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 7,06</t>
+          <t>3,19; 7,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,16</t>
+          <t>3,08; 5,99</t>
         </is>
       </c>
     </row>
@@ -706,17 +707,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,69%</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,72</t>
+          <t>2,58; 5,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 7,28</t>
+          <t>4,49; 7,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,55; 5,46</t>
+          <t>3,59; 5,63</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con capacidad laboral &lt;=6 (Likert 0 a 10)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11534</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>16154</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>27688</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6924; 18928</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9089; 28953</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>18498; 45748</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>47585</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>46575</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>94160</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>24774; 65145</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>33887; 61408</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>64323; 116580</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17785</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>21051</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>38836</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9453; 30234</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13993; 31107</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>27358; 53209</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>76904</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>83780</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>160684</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>50563; 98440</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>65734; 107325</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>122967; 193078</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>